--- a/primerdata_allspecies.xlsx
+++ b/primerdata_allspecies.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8397" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8397" uniqueCount="271">
   <si>
     <t>No.</t>
   </si>
@@ -59,6 +59,9 @@
     <t>LOB.RAD</t>
   </si>
   <si>
+    <t>CTE.ECH</t>
+  </si>
+  <si>
     <t>PEC.LAC</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t>PEC.CRA</t>
   </si>
   <si>
-    <t>CTE.ECH</t>
-  </si>
-  <si>
     <t>PAV.FRO</t>
   </si>
   <si>
@@ -179,12 +179,12 @@
     <t>COE.ASP</t>
   </si>
   <si>
+    <t>MON.SP.</t>
+  </si>
+  <si>
     <t>FUN.SP.</t>
   </si>
   <si>
-    <t>MON.SP.</t>
-  </si>
-  <si>
     <t>LER.PUR</t>
   </si>
   <si>
@@ -230,6 +230,12 @@
     <t>OXY.LAC</t>
   </si>
   <si>
+    <t>TUB.MIC</t>
+  </si>
+  <si>
+    <t>SYM.REC</t>
+  </si>
+  <si>
     <t>FAV.ABD</t>
   </si>
   <si>
@@ -251,12 +257,6 @@
     <t>FIM.ANC</t>
   </si>
   <si>
-    <t>LOB.HAT</t>
-  </si>
-  <si>
-    <t>TUB.MIC</t>
-  </si>
-  <si>
     <t>ACR.SP.</t>
   </si>
   <si>
@@ -368,6 +368,9 @@
     <t/>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>162</t>
   </si>
   <si>
@@ -386,7 +389,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>87</t>
+    <t>93</t>
   </si>
   <si>
     <t>10</t>
@@ -425,180 +428,168 @@
     <t>258</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
@@ -635,7 +626,7 @@
     <t>98</t>
   </si>
   <si>
-    <t>76</t>
+    <t>120</t>
   </si>
   <si>
     <t>86</t>
@@ -650,12 +641,12 @@
     <t>71</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -665,6 +656,9 @@
     <t>384</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>158</t>
   </si>
   <si>
@@ -707,9 +701,6 @@
     <t>275</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -740,16 +731,13 @@
     <t>108</t>
   </si>
   <si>
-    <t>544</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>1246</t>
+    <t>1344</t>
   </si>
   <si>
     <t>259</t>
@@ -764,21 +752,18 @@
     <t>127</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>343</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>560</t>
   </si>
   <si>
@@ -803,10 +788,10 @@
     <t>Small Sisters</t>
   </si>
   <si>
+    <t>Sultan Shoal North</t>
+  </si>
+  <si>
     <t>SMK1</t>
-  </si>
-  <si>
-    <t>Sultan Shoal North</t>
   </si>
   <si>
     <t>Kusu</t>
@@ -1284,7 +1269,7 @@
         <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O2" t="s">
         <v>117</v>
@@ -1380,13 +1365,13 @@
         <v>117</v>
       </c>
       <c r="AT2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AU2" t="s">
         <v>117</v>
       </c>
       <c r="AV2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AW2" t="s">
         <v>117</v>
@@ -1587,13 +1572,13 @@
         <v>1.0</v>
       </c>
       <c r="DK2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="DL2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -1616,7 +1601,7 @@
         <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
         <v>169</v>
@@ -1646,11 +1631,11 @@
         <v>117</v>
       </c>
       <c r="Q3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="s">
         <v>142</v>
       </c>
-      <c r="R3" t="s">
-        <v>117</v>
-      </c>
       <c r="S3" t="s">
         <v>117</v>
       </c>
@@ -1676,7 +1661,7 @@
         <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="s">
         <v>117</v>
@@ -1709,7 +1694,7 @@
         <v>117</v>
       </c>
       <c r="AL3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AM3" t="s">
         <v>117</v>
@@ -1733,7 +1718,7 @@
         <v>117</v>
       </c>
       <c r="AT3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AU3" t="s">
         <v>117</v>
@@ -1763,10 +1748,10 @@
         <v>117</v>
       </c>
       <c r="BD3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE3" t="s">
         <v>141</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>117</v>
       </c>
       <c r="BF3" t="s">
         <v>117</v>
@@ -1940,13 +1925,13 @@
         <v>1.0</v>
       </c>
       <c r="DK3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -1966,16 +1951,16 @@
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
         <v>117</v>
@@ -2170,7 +2155,7 @@
         <v>117</v>
       </c>
       <c r="BV4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="BW4" t="s">
         <v>117</v>
@@ -2188,7 +2173,7 @@
         <v>117</v>
       </c>
       <c r="CB4" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="CC4" t="s">
         <v>117</v>
@@ -2293,13 +2278,13 @@
         <v>1.0</v>
       </c>
       <c r="DK4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -2466,7 +2451,7 @@
         <v>117</v>
       </c>
       <c r="BC5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BD5" t="s">
         <v>117</v>
@@ -2646,13 +2631,13 @@
         <v>1.0</v>
       </c>
       <c r="DK5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="DL5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -2669,22 +2654,22 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
         <v>117</v>
@@ -2693,7 +2678,7 @@
         <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N6" t="s">
         <v>143</v>
@@ -2705,10 +2690,10 @@
         <v>117</v>
       </c>
       <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
         <v>157</v>
-      </c>
-      <c r="R6" t="s">
-        <v>117</v>
       </c>
       <c r="S6" t="s">
         <v>117</v>
@@ -2768,7 +2753,7 @@
         <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM6" t="s">
         <v>117</v>
@@ -2777,208 +2762,208 @@
         <v>117</v>
       </c>
       <c r="AO6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DD6" t="s">
         <v>128</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>117</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>117</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>127</v>
       </c>
       <c r="DE6" t="s">
         <v>117</v>
@@ -2999,13 +2984,13 @@
         <v>1.0</v>
       </c>
       <c r="DK6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="DL6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
@@ -3019,43 +3004,43 @@
         <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" t="s">
         <v>173</v>
       </c>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
       <c r="M7" t="s">
         <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
         <v>117</v>
@@ -3067,10 +3052,10 @@
         <v>117</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="U7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="V7" t="s">
         <v>117</v>
@@ -3079,37 +3064,37 @@
         <v>117</v>
       </c>
       <c r="X7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Y7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG7" t="s">
         <v>152</v>
       </c>
-      <c r="Z7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>117</v>
-      </c>
       <c r="AH7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="AI7" t="s">
         <v>117</v>
@@ -3121,10 +3106,10 @@
         <v>117</v>
       </c>
       <c r="AL7" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="AN7" t="s">
         <v>117</v>
@@ -3148,7 +3133,7 @@
         <v>117</v>
       </c>
       <c r="AU7" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="AV7" t="s">
         <v>117</v>
@@ -3169,7 +3154,7 @@
         <v>117</v>
       </c>
       <c r="BB7" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="BC7" t="s">
         <v>117</v>
@@ -3178,13 +3163,13 @@
         <v>117</v>
       </c>
       <c r="BE7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="BF7" t="s">
         <v>117</v>
       </c>
       <c r="BG7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BH7" t="s">
         <v>117</v>
@@ -3199,7 +3184,7 @@
         <v>117</v>
       </c>
       <c r="BL7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="BM7" t="s">
         <v>117</v>
@@ -3214,7 +3199,7 @@
         <v>117</v>
       </c>
       <c r="BQ7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="BR7" t="s">
         <v>117</v>
@@ -3352,13 +3337,13 @@
         <v>1.0</v>
       </c>
       <c r="DK7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="DL7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -3366,89 +3351,89 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" t="s">
         <v>161</v>
       </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>117</v>
-      </c>
-      <c r="R8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" t="s">
-        <v>142</v>
-      </c>
-      <c r="U8" t="s">
-        <v>134</v>
-      </c>
-      <c r="V8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" t="s">
-        <v>117</v>
-      </c>
-      <c r="X8" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>117</v>
-      </c>
       <c r="AD8" t="s">
         <v>117</v>
       </c>
@@ -3459,10 +3444,10 @@
         <v>117</v>
       </c>
       <c r="AG8" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
         <v>117</v>
@@ -3474,10 +3459,10 @@
         <v>117</v>
       </c>
       <c r="AL8" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="AM8" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="AN8" t="s">
         <v>117</v>
@@ -3501,7 +3486,7 @@
         <v>117</v>
       </c>
       <c r="AU8" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="AV8" t="s">
         <v>117</v>
@@ -3522,13 +3507,13 @@
         <v>117</v>
       </c>
       <c r="BB8" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="BC8" t="s">
         <v>117</v>
       </c>
       <c r="BD8" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="BE8" t="s">
         <v>117</v>
@@ -3537,7 +3522,7 @@
         <v>117</v>
       </c>
       <c r="BG8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="BH8" t="s">
         <v>117</v>
@@ -3552,7 +3537,7 @@
         <v>117</v>
       </c>
       <c r="BL8" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="BM8" t="s">
         <v>117</v>
@@ -3567,7 +3552,7 @@
         <v>117</v>
       </c>
       <c r="BQ8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="BR8" t="s">
         <v>117</v>
@@ -3705,13 +3690,13 @@
         <v>1.0</v>
       </c>
       <c r="DK8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="DL8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
@@ -3719,7 +3704,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -3758,7 +3743,7 @@
         <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
         <v>117</v>
@@ -3788,7 +3773,7 @@
         <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z9" t="s">
         <v>117</v>
@@ -3848,7 +3833,7 @@
         <v>117</v>
       </c>
       <c r="AS9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AT9" t="s">
         <v>117</v>
@@ -3914,10 +3899,10 @@
         <v>117</v>
       </c>
       <c r="BO9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BP9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BQ9" t="s">
         <v>117</v>
@@ -4007,13 +3992,13 @@
         <v>117</v>
       </c>
       <c r="CT9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CU9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="CV9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW9" t="s">
         <v>117</v>
@@ -4058,13 +4043,13 @@
         <v>1.0</v>
       </c>
       <c r="DK9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="DL9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -4072,7 +4057,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -4087,7 +4072,7 @@
         <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
         <v>117</v>
@@ -4228,10 +4213,10 @@
         <v>117</v>
       </c>
       <c r="BB10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BC10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="BD10" t="s">
         <v>117</v>
@@ -4411,13 +4396,13 @@
         <v>1.0</v>
       </c>
       <c r="DK10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="DL10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
@@ -4425,7 +4410,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>155</v>
@@ -4434,10 +4419,10 @@
         <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -4449,7 +4434,7 @@
         <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
         <v>117</v>
@@ -4458,7 +4443,7 @@
         <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
         <v>117</v>
@@ -4485,7 +4470,7 @@
         <v>117</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W11" t="s">
         <v>117</v>
@@ -4611,10 +4596,10 @@
         <v>117</v>
       </c>
       <c r="BL11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BM11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BN11" t="s">
         <v>117</v>
@@ -4764,13 +4749,13 @@
         <v>1.0</v>
       </c>
       <c r="DK11" t="s">
+        <v>262</v>
+      </c>
+      <c r="DL11" t="s">
         <v>267</v>
       </c>
-      <c r="DL11" t="s">
-        <v>272</v>
-      </c>
       <c r="DM11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12">
@@ -4778,7 +4763,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>156</v>
@@ -4796,7 +4781,7 @@
         <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
         <v>145</v>
@@ -4847,13 +4832,13 @@
         <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z12" t="s">
         <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB12" t="s">
         <v>117</v>
@@ -4943,7 +4928,7 @@
         <v>117</v>
       </c>
       <c r="BE12" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="BF12" t="s">
         <v>117</v>
@@ -5117,13 +5102,13 @@
         <v>1.0</v>
       </c>
       <c r="DK12" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL12" t="s">
         <v>268</v>
       </c>
-      <c r="DL12" t="s">
-        <v>273</v>
-      </c>
       <c r="DM12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -5131,7 +5116,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -5140,28 +5125,28 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I13" t="s">
         <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
         <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
         <v>117</v>
@@ -5173,16 +5158,16 @@
         <v>117</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T13" t="s">
         <v>117</v>
@@ -5338,10 +5323,10 @@
         <v>117</v>
       </c>
       <c r="BS13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BT13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="BU13" t="s">
         <v>117</v>
@@ -5377,16 +5362,16 @@
         <v>117</v>
       </c>
       <c r="CF13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CG13" t="s">
         <v>117</v>
       </c>
       <c r="CH13" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="CI13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CJ13" t="s">
         <v>117</v>
@@ -5470,13 +5455,13 @@
         <v>1.0</v>
       </c>
       <c r="DK13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
@@ -5484,7 +5469,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
@@ -5493,13 +5478,13 @@
         <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
         <v>141</v>
@@ -5550,7 +5535,7 @@
         <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Y14" t="s">
         <v>117</v>
@@ -5601,7 +5586,7 @@
         <v>117</v>
       </c>
       <c r="AO14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AP14" t="s">
         <v>117</v>
@@ -5823,13 +5808,13 @@
         <v>1.0</v>
       </c>
       <c r="DK14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -5837,7 +5822,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -5906,13 +5891,13 @@
         <v>117</v>
       </c>
       <c r="Y15" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s">
         <v>117</v>
       </c>
       <c r="AA15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB15" t="s">
         <v>152</v>
@@ -5996,13 +5981,13 @@
         <v>117</v>
       </c>
       <c r="BC15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BD15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="BE15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BF15" t="s">
         <v>117</v>
@@ -6176,13 +6161,13 @@
         <v>1.0</v>
       </c>
       <c r="DK15" t="s">
+        <v>265</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>267</v>
+      </c>
+      <c r="DM15" t="s">
         <v>270</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="16">
@@ -6208,10 +6193,10 @@
         <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
         <v>152</v>
@@ -6223,10 +6208,10 @@
         <v>117</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
         <v>117</v>
@@ -6286,7 +6271,7 @@
         <v>117</v>
       </c>
       <c r="AH16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
         <v>117</v>
@@ -6298,7 +6283,7 @@
         <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s">
         <v>142</v>
@@ -6313,7 +6298,7 @@
         <v>117</v>
       </c>
       <c r="AQ16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AR16" t="s">
         <v>117</v>
@@ -6373,7 +6358,7 @@
         <v>117</v>
       </c>
       <c r="BK16" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="BL16" t="s">
         <v>117</v>
@@ -6385,7 +6370,7 @@
         <v>117</v>
       </c>
       <c r="BO16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BP16" t="s">
         <v>117</v>
@@ -6529,13 +6514,13 @@
         <v>2.0</v>
       </c>
       <c r="DK16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="DL16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
@@ -6555,7 +6540,7 @@
         <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -6564,10 +6549,10 @@
         <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -6585,10 +6570,10 @@
         <v>148</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="R17" t="s">
         <v>117</v>
@@ -6609,7 +6594,7 @@
         <v>117</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
         <v>117</v>
@@ -6627,7 +6612,7 @@
         <v>117</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE17" t="s">
         <v>117</v>
@@ -6657,7 +6642,7 @@
         <v>117</v>
       </c>
       <c r="AN17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO17" t="s">
         <v>117</v>
@@ -6714,7 +6699,7 @@
         <v>117</v>
       </c>
       <c r="BG17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BH17" t="s">
         <v>117</v>
@@ -6741,7 +6726,7 @@
         <v>117</v>
       </c>
       <c r="BP17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="BQ17" t="s">
         <v>117</v>
@@ -6882,13 +6867,13 @@
         <v>2.0</v>
       </c>
       <c r="DK17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="DL17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -6899,7 +6884,7 @@
         <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -6911,16 +6896,16 @@
         <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
         <v>117</v>
@@ -7118,19 +7103,19 @@
         <v>117</v>
       </c>
       <c r="BX18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BY18" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA18" t="s">
         <v>163</v>
       </c>
-      <c r="BZ18" t="s">
+      <c r="CB18" t="s">
         <v>143</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>117</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>117</v>
       </c>
       <c r="CC18" t="s">
         <v>117</v>
@@ -7235,13 +7220,13 @@
         <v>2.0</v>
       </c>
       <c r="DK18" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="DL18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -7411,10 +7396,10 @@
         <v>117</v>
       </c>
       <c r="BD19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="BE19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF19" t="s">
         <v>117</v>
@@ -7588,13 +7573,13 @@
         <v>2.0</v>
       </c>
       <c r="DK19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="DL19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20">
@@ -7620,25 +7605,25 @@
         <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
         <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s">
         <v>117</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
         <v>117</v>
@@ -7725,7 +7710,7 @@
         <v>161</v>
       </c>
       <c r="AQ20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AR20" t="s">
         <v>117</v>
@@ -7773,7 +7758,7 @@
         <v>117</v>
       </c>
       <c r="BG20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BH20" t="s">
         <v>117</v>
@@ -7941,13 +7926,13 @@
         <v>2.0</v>
       </c>
       <c r="DK20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="DL20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
@@ -7955,7 +7940,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
         <v>117</v>
@@ -7970,104 +7955,104 @@
         <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" t="s">
+        <v>117</v>
+      </c>
+      <c r="T21" t="s">
+        <v>117</v>
+      </c>
+      <c r="U21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V21" t="s">
+        <v>117</v>
+      </c>
+      <c r="W21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM21" t="s">
         <v>173</v>
       </c>
-      <c r="I21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M21" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" t="s">
-        <v>117</v>
-      </c>
-      <c r="P21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>117</v>
-      </c>
-      <c r="R21" t="s">
-        <v>117</v>
-      </c>
-      <c r="S21" t="s">
-        <v>117</v>
-      </c>
-      <c r="T21" t="s">
-        <v>117</v>
-      </c>
-      <c r="U21" t="s">
-        <v>117</v>
-      </c>
-      <c r="V21" t="s">
-        <v>117</v>
-      </c>
-      <c r="W21" t="s">
-        <v>117</v>
-      </c>
-      <c r="X21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>174</v>
-      </c>
       <c r="AN21" t="s">
         <v>117</v>
       </c>
@@ -8111,16 +8096,16 @@
         <v>117</v>
       </c>
       <c r="BB21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BC21" t="s">
         <v>117</v>
       </c>
       <c r="BD21" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="BE21" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="BF21" t="s">
         <v>117</v>
@@ -8294,13 +8279,13 @@
         <v>2.0</v>
       </c>
       <c r="DK21" t="s">
+        <v>265</v>
+      </c>
+      <c r="DL21" t="s">
+        <v>267</v>
+      </c>
+      <c r="DM21" t="s">
         <v>270</v>
-      </c>
-      <c r="DL21" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM21" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22">
@@ -8308,7 +8293,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>150</v>
@@ -8317,13 +8302,13 @@
         <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H22" t="s">
         <v>152</v>
@@ -8332,7 +8317,7 @@
         <v>161</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" t="s">
         <v>170</v>
@@ -8341,37 +8326,37 @@
         <v>161</v>
       </c>
       <c r="M22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s">
         <v>117</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" t="s">
         <v>152</v>
       </c>
-      <c r="Q22" t="s">
-        <v>117</v>
-      </c>
       <c r="R22" t="s">
         <v>117</v>
       </c>
       <c r="S22" t="s">
+        <v>117</v>
+      </c>
+      <c r="T22" t="s">
         <v>143</v>
       </c>
-      <c r="T22" t="s">
-        <v>117</v>
-      </c>
       <c r="U22" t="s">
         <v>117</v>
       </c>
       <c r="V22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X22" t="s">
         <v>117</v>
@@ -8389,7 +8374,7 @@
         <v>145</v>
       </c>
       <c r="AC22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD22" t="s">
         <v>117</v>
@@ -8398,13 +8383,13 @@
         <v>117</v>
       </c>
       <c r="AF22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG22" t="s">
         <v>117</v>
       </c>
       <c r="AH22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI22" t="s">
         <v>117</v>
@@ -8647,13 +8632,13 @@
         <v>2.0</v>
       </c>
       <c r="DK22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DL22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM22" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -8661,10 +8646,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>117</v>
@@ -8742,7 +8727,7 @@
         <v>117</v>
       </c>
       <c r="AC23" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="AD23" t="s">
         <v>117</v>
@@ -9000,13 +8985,13 @@
         <v>2.0</v>
       </c>
       <c r="DK23" t="s">
+        <v>262</v>
+      </c>
+      <c r="DL23" t="s">
         <v>267</v>
       </c>
-      <c r="DL23" t="s">
-        <v>272</v>
-      </c>
       <c r="DM23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -9014,7 +8999,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
         <v>117</v>
@@ -9035,7 +9020,7 @@
         <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
         <v>117</v>
@@ -9062,10 +9047,10 @@
         <v>117</v>
       </c>
       <c r="R24" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="T24" t="s">
         <v>117</v>
@@ -9353,13 +9338,13 @@
         <v>2.0</v>
       </c>
       <c r="DK24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="DL24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -9367,7 +9352,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>117</v>
@@ -9391,7 +9376,7 @@
         <v>117</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
         <v>117</v>
@@ -9475,7 +9460,7 @@
         <v>117</v>
       </c>
       <c r="AL25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM25" t="s">
         <v>117</v>
@@ -9706,13 +9691,13 @@
         <v>2.0</v>
       </c>
       <c r="DK25" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL25" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM25" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
@@ -9720,7 +9705,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>117</v>
@@ -9741,10 +9726,10 @@
         <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
         <v>117</v>
@@ -9756,34 +9741,34 @@
         <v>117</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O26" t="s">
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="Q26" t="s">
         <v>117</v>
       </c>
       <c r="R26" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="T26" t="s">
         <v>117</v>
       </c>
       <c r="U26" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="V26" t="s">
         <v>117</v>
       </c>
       <c r="W26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X26" t="s">
         <v>117</v>
@@ -9828,7 +9813,7 @@
         <v>117</v>
       </c>
       <c r="AL26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s">
         <v>117</v>
@@ -9852,7 +9837,7 @@
         <v>117</v>
       </c>
       <c r="AT26" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="AU26" t="s">
         <v>166</v>
@@ -9873,7 +9858,7 @@
         <v>117</v>
       </c>
       <c r="BA26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="s">
         <v>117</v>
@@ -10059,13 +10044,13 @@
         <v>2.0</v>
       </c>
       <c r="DK26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="DL26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
@@ -10073,7 +10058,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>117</v>
@@ -10091,16 +10076,16 @@
         <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
         <v>145</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s">
         <v>117</v>
@@ -10163,7 +10148,7 @@
         <v>117</v>
       </c>
       <c r="AF27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s">
         <v>117</v>
@@ -10286,7 +10271,7 @@
         <v>117</v>
       </c>
       <c r="BU27" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BV27" t="s">
         <v>117</v>
@@ -10310,7 +10295,7 @@
         <v>117</v>
       </c>
       <c r="CC27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="CD27" t="s">
         <v>117</v>
@@ -10412,13 +10397,13 @@
         <v>2.0</v>
       </c>
       <c r="DK27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL27" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
@@ -10426,7 +10411,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>162</v>
@@ -10444,10 +10429,10 @@
         <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
         <v>117</v>
@@ -10765,13 +10750,13 @@
         <v>2.0</v>
       </c>
       <c r="DK28" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL28" t="s">
         <v>268</v>
       </c>
-      <c r="DL28" t="s">
-        <v>273</v>
-      </c>
       <c r="DM28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -10779,7 +10764,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -10791,7 +10776,7 @@
         <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
         <v>161</v>
@@ -10809,7 +10794,7 @@
         <v>117</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M29" t="s">
         <v>117</v>
@@ -10863,7 +10848,7 @@
         <v>117</v>
       </c>
       <c r="AD29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AE29" t="s">
         <v>117</v>
@@ -10896,7 +10881,7 @@
         <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AP29" t="s">
         <v>117</v>
@@ -10953,7 +10938,7 @@
         <v>117</v>
       </c>
       <c r="BH29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BI29" t="s">
         <v>117</v>
@@ -11118,13 +11103,13 @@
         <v>2.0</v>
       </c>
       <c r="DK29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -11132,7 +11117,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>163</v>
@@ -11144,13 +11129,13 @@
         <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
         <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
         <v>117</v>
@@ -11162,7 +11147,7 @@
         <v>117</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" t="s">
         <v>117</v>
@@ -11174,10 +11159,10 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="R30" t="s">
         <v>117</v>
@@ -11186,11 +11171,11 @@
         <v>117</v>
       </c>
       <c r="T30" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" t="s">
         <v>159</v>
       </c>
-      <c r="U30" t="s">
-        <v>117</v>
-      </c>
       <c r="V30" t="s">
         <v>117</v>
       </c>
@@ -11240,13 +11225,13 @@
         <v>117</v>
       </c>
       <c r="AL30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s">
         <v>117</v>
       </c>
       <c r="AN30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AO30" t="s">
         <v>141</v>
@@ -11267,7 +11252,7 @@
         <v>117</v>
       </c>
       <c r="AU30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AV30" t="s">
         <v>117</v>
@@ -11294,10 +11279,10 @@
         <v>117</v>
       </c>
       <c r="BD30" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="BE30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF30" t="s">
         <v>117</v>
@@ -11381,7 +11366,7 @@
         <v>117</v>
       </c>
       <c r="CG30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CH30" t="s">
         <v>117</v>
@@ -11471,13 +11456,13 @@
         <v>2.0</v>
       </c>
       <c r="DK30" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL30" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
@@ -11503,16 +11488,16 @@
         <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J31" t="s">
         <v>117</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s">
         <v>117</v>
@@ -11521,7 +11506,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
         <v>117</v>
@@ -11530,10 +11515,10 @@
         <v>117</v>
       </c>
       <c r="Q31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="R31" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S31" t="s">
         <v>117</v>
@@ -11572,7 +11557,7 @@
         <v>117</v>
       </c>
       <c r="AE31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s">
         <v>117</v>
@@ -11617,7 +11602,7 @@
         <v>117</v>
       </c>
       <c r="AT31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AU31" t="s">
         <v>117</v>
@@ -11683,7 +11668,7 @@
         <v>117</v>
       </c>
       <c r="BP31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BQ31" t="s">
         <v>117</v>
@@ -11764,7 +11749,7 @@
         <v>117</v>
       </c>
       <c r="CQ31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CR31" t="s">
         <v>117</v>
@@ -11824,13 +11809,13 @@
         <v>3.0</v>
       </c>
       <c r="DK31" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="DL31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -11853,13 +11838,13 @@
         <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
         <v>117</v>
@@ -11883,10 +11868,10 @@
         <v>117</v>
       </c>
       <c r="Q32" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="R32" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="S32" t="s">
         <v>117</v>
@@ -11913,7 +11898,7 @@
         <v>117</v>
       </c>
       <c r="AA32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB32" t="s">
         <v>117</v>
@@ -12177,13 +12162,13 @@
         <v>3.0</v>
       </c>
       <c r="DK32" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL32" t="s">
         <v>268</v>
       </c>
-      <c r="DL32" t="s">
-        <v>273</v>
-      </c>
       <c r="DM32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -12206,13 +12191,13 @@
         <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H33" t="s">
         <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J33" t="s">
         <v>117</v>
@@ -12224,13 +12209,13 @@
         <v>117</v>
       </c>
       <c r="M33" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="N33" t="s">
         <v>117</v>
       </c>
       <c r="O33" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="P33" t="s">
         <v>117</v>
@@ -12266,13 +12251,13 @@
         <v>117</v>
       </c>
       <c r="AA33" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB33" t="s">
         <v>117</v>
       </c>
       <c r="AC33" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="AD33" t="s">
         <v>117</v>
@@ -12302,7 +12287,7 @@
         <v>117</v>
       </c>
       <c r="AM33" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AN33" t="s">
         <v>117</v>
@@ -12323,7 +12308,7 @@
         <v>117</v>
       </c>
       <c r="AT33" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AU33" t="s">
         <v>117</v>
@@ -12347,7 +12332,7 @@
         <v>117</v>
       </c>
       <c r="BB33" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="BC33" t="s">
         <v>168</v>
@@ -12362,7 +12347,7 @@
         <v>117</v>
       </c>
       <c r="BG33" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="BH33" t="s">
         <v>117</v>
@@ -12377,7 +12362,7 @@
         <v>117</v>
       </c>
       <c r="BL33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BM33" t="s">
         <v>117</v>
@@ -12407,7 +12392,7 @@
         <v>117</v>
       </c>
       <c r="BV33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BW33" t="s">
         <v>117</v>
@@ -12530,13 +12515,13 @@
         <v>3.0</v>
       </c>
       <c r="DK33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="DL33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM33" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -12571,10 +12556,10 @@
         <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s">
         <v>117</v>
@@ -12583,7 +12568,7 @@
         <v>117</v>
       </c>
       <c r="O34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P34" t="s">
         <v>117</v>
@@ -12607,16 +12592,16 @@
         <v>117</v>
       </c>
       <c r="W34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Y34" t="s">
         <v>138</v>
       </c>
       <c r="Z34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AA34" t="s">
         <v>117</v>
@@ -12631,7 +12616,7 @@
         <v>117</v>
       </c>
       <c r="AE34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF34" t="s">
         <v>117</v>
@@ -12646,7 +12631,7 @@
         <v>142</v>
       </c>
       <c r="AJ34" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="AK34" t="s">
         <v>143</v>
@@ -12871,10 +12856,10 @@
         <v>117</v>
       </c>
       <c r="DG34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="DH34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DI34" t="s">
         <v>112</v>
@@ -12883,13 +12868,13 @@
         <v>3.0</v>
       </c>
       <c r="DK34" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DL34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM34" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
@@ -12897,130 +12882,130 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>117</v>
+      </c>
+      <c r="R35" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" t="s">
+        <v>117</v>
+      </c>
+      <c r="T35" t="s">
+        <v>117</v>
+      </c>
+      <c r="U35" t="s">
+        <v>117</v>
+      </c>
+      <c r="V35" t="s">
+        <v>117</v>
+      </c>
+      <c r="W35" t="s">
+        <v>117</v>
+      </c>
+      <c r="X35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP35" t="s">
         <v>135</v>
       </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M35" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>117</v>
-      </c>
-      <c r="R35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S35" t="s">
-        <v>117</v>
-      </c>
-      <c r="T35" t="s">
-        <v>117</v>
-      </c>
-      <c r="U35" t="s">
-        <v>117</v>
-      </c>
-      <c r="V35" t="s">
-        <v>117</v>
-      </c>
-      <c r="W35" t="s">
-        <v>117</v>
-      </c>
-      <c r="X35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>117</v>
-      </c>
       <c r="AQ35" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="AR35" t="s">
         <v>117</v>
@@ -13029,16 +13014,16 @@
         <v>117</v>
       </c>
       <c r="AT35" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="AU35" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="AV35" t="s">
         <v>117</v>
       </c>
       <c r="AW35" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AX35" t="s">
         <v>117</v>
@@ -13236,13 +13221,13 @@
         <v>3.0</v>
       </c>
       <c r="DK35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="DL35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -13250,139 +13235,139 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
         <v>117</v>
       </c>
       <c r="J36" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>224</v>
+      </c>
+      <c r="R36" t="s">
+        <v>117</v>
+      </c>
+      <c r="S36" t="s">
+        <v>117</v>
+      </c>
+      <c r="T36" t="s">
+        <v>117</v>
+      </c>
+      <c r="U36" t="s">
+        <v>117</v>
+      </c>
+      <c r="V36" t="s">
+        <v>117</v>
+      </c>
+      <c r="W36" t="s">
+        <v>117</v>
+      </c>
+      <c r="X36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>156</v>
       </c>
-      <c r="K36" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" t="s">
-        <v>117</v>
-      </c>
-      <c r="M36" t="s">
-        <v>117</v>
-      </c>
-      <c r="N36" t="s">
-        <v>152</v>
-      </c>
-      <c r="O36" t="s">
-        <v>117</v>
-      </c>
-      <c r="P36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>117</v>
-      </c>
-      <c r="R36" t="s">
-        <v>117</v>
-      </c>
-      <c r="S36" t="s">
-        <v>117</v>
-      </c>
-      <c r="T36" t="s">
-        <v>117</v>
-      </c>
-      <c r="U36" t="s">
-        <v>144</v>
-      </c>
-      <c r="V36" t="s">
-        <v>117</v>
-      </c>
-      <c r="W36" t="s">
-        <v>117</v>
-      </c>
-      <c r="X36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>117</v>
-      </c>
       <c r="AR36" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="AS36" t="s">
         <v>117</v>
       </c>
       <c r="AT36" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="AU36" t="s">
         <v>117</v>
@@ -13391,7 +13376,7 @@
         <v>117</v>
       </c>
       <c r="AW36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="AX36" t="s">
         <v>117</v>
@@ -13424,7 +13409,7 @@
         <v>117</v>
       </c>
       <c r="BH36" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="BI36" t="s">
         <v>117</v>
@@ -13442,13 +13427,13 @@
         <v>117</v>
       </c>
       <c r="BN36" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="BO36" t="s">
         <v>117</v>
       </c>
       <c r="BP36" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="BQ36" t="s">
         <v>117</v>
@@ -13532,10 +13517,10 @@
         <v>117</v>
       </c>
       <c r="CR36" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="CS36" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="CT36" t="s">
         <v>117</v>
@@ -13589,13 +13574,13 @@
         <v>3.0</v>
       </c>
       <c r="DK36" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="DL36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -13603,292 +13588,292 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>117</v>
+      </c>
+      <c r="R37" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" t="s">
+        <v>117</v>
+      </c>
+      <c r="T37" t="s">
+        <v>117</v>
+      </c>
+      <c r="U37" t="s">
+        <v>117</v>
+      </c>
+      <c r="V37" t="s">
+        <v>117</v>
+      </c>
+      <c r="W37" t="s">
+        <v>117</v>
+      </c>
+      <c r="X37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M37" t="s">
-        <v>117</v>
-      </c>
-      <c r="N37" t="s">
-        <v>117</v>
-      </c>
-      <c r="O37" t="s">
-        <v>117</v>
-      </c>
-      <c r="P37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>117</v>
-      </c>
-      <c r="R37" t="s">
-        <v>117</v>
-      </c>
-      <c r="S37" t="s">
-        <v>117</v>
-      </c>
-      <c r="T37" t="s">
-        <v>117</v>
-      </c>
-      <c r="U37" t="s">
-        <v>117</v>
-      </c>
-      <c r="V37" t="s">
-        <v>117</v>
-      </c>
-      <c r="W37" t="s">
-        <v>117</v>
-      </c>
-      <c r="X37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BX37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BZ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CB37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CF37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CK37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CO37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ37" t="s">
-        <v>117</v>
-      </c>
-      <c r="CR37" t="s">
-        <v>117</v>
-      </c>
       <c r="CS37" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="CT37" t="s">
         <v>117</v>
@@ -13942,13 +13927,13 @@
         <v>3.0</v>
       </c>
       <c r="DK37" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="DL37" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -13959,22 +13944,22 @@
         <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
         <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
         <v>117</v>
@@ -14004,7 +13989,7 @@
         <v>117</v>
       </c>
       <c r="R38" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="S38" t="s">
         <v>117</v>
@@ -14076,7 +14061,7 @@
         <v>117</v>
       </c>
       <c r="AP38" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="AQ38" t="s">
         <v>117</v>
@@ -14091,7 +14076,7 @@
         <v>117</v>
       </c>
       <c r="AU38" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="AV38" t="s">
         <v>117</v>
@@ -14100,7 +14085,7 @@
         <v>117</v>
       </c>
       <c r="AX38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AY38" t="s">
         <v>117</v>
@@ -14295,13 +14280,13 @@
         <v>3.0</v>
       </c>
       <c r="DK38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="DL38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DM38" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
@@ -14312,116 +14297,116 @@
         <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
         <v>117</v>
       </c>
       <c r="G39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" t="s">
+        <v>163</v>
+      </c>
+      <c r="N39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>117</v>
+      </c>
+      <c r="R39" t="s">
+        <v>117</v>
+      </c>
+      <c r="S39" t="s">
+        <v>117</v>
+      </c>
+      <c r="T39" t="s">
+        <v>117</v>
+      </c>
+      <c r="U39" t="s">
+        <v>117</v>
+      </c>
+      <c r="V39" t="s">
+        <v>117</v>
+      </c>
+      <c r="W39" t="s">
+        <v>117</v>
+      </c>
+      <c r="X39" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM39" t="s">
         <v>130</v>
       </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L39" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" t="s">
-        <v>117</v>
-      </c>
-      <c r="N39" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>117</v>
-      </c>
-      <c r="R39" t="s">
-        <v>117</v>
-      </c>
-      <c r="S39" t="s">
-        <v>117</v>
-      </c>
-      <c r="T39" t="s">
-        <v>117</v>
-      </c>
-      <c r="U39" t="s">
-        <v>117</v>
-      </c>
-      <c r="V39" t="s">
-        <v>117</v>
-      </c>
-      <c r="W39" t="s">
-        <v>117</v>
-      </c>
-      <c r="X39" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>117</v>
-      </c>
       <c r="AN39" t="s">
         <v>117</v>
       </c>
@@ -14447,13 +14432,13 @@
         <v>117</v>
       </c>
       <c r="AV39" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AW39" t="s">
         <v>117</v>
       </c>
       <c r="AX39" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AY39" t="s">
         <v>117</v>
@@ -14474,13 +14459,13 @@
         <v>117</v>
       </c>
       <c r="BE39" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="BF39" t="s">
         <v>117</v>
       </c>
       <c r="BG39" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="BH39" t="s">
         <v>117</v>
@@ -14489,10 +14474,10 @@
         <v>117</v>
       </c>
       <c r="BJ39" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="BK39" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="BL39" t="s">
         <v>117</v>
@@ -14513,7 +14498,7 @@
         <v>117</v>
       </c>
       <c r="BR39" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="BS39" t="s">
         <v>117</v>
@@ -14648,13 +14633,13 @@
         <v>3.0</v>
       </c>
       <c r="DK39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DL39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
@@ -14665,7 +14650,7 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -14677,25 +14662,25 @@
         <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s">
         <v>117</v>
       </c>
       <c r="M40" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="N40" t="s">
         <v>117</v>
@@ -14734,10 +14719,10 @@
         <v>117</v>
       </c>
       <c r="Z40" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="AA40" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AB40" t="s">
         <v>117</v>
@@ -14764,16 +14749,16 @@
         <v>117</v>
       </c>
       <c r="AJ40" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s">
         <v>117</v>
       </c>
       <c r="AL40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AM40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AN40" t="s">
         <v>117</v>
@@ -14800,13 +14785,13 @@
         <v>117</v>
       </c>
       <c r="AV40" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="AW40" t="s">
         <v>117</v>
       </c>
       <c r="AX40" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="AY40" t="s">
         <v>117</v>
@@ -14824,7 +14809,7 @@
         <v>117</v>
       </c>
       <c r="BD40" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="BE40" t="s">
         <v>117</v>
@@ -14833,7 +14818,7 @@
         <v>117</v>
       </c>
       <c r="BG40" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="BH40" t="s">
         <v>117</v>
@@ -14845,7 +14830,7 @@
         <v>117</v>
       </c>
       <c r="BK40" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="BL40" t="s">
         <v>117</v>
@@ -15001,13 +14986,13 @@
         <v>3.0</v>
       </c>
       <c r="DK40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="DL40" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -15015,34 +15000,34 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
         <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
         <v>117</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J41" t="s">
         <v>117</v>
       </c>
       <c r="K41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
         <v>117</v>
@@ -15051,7 +15036,7 @@
         <v>117</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="O41" t="s">
         <v>117</v>
@@ -15087,7 +15072,7 @@
         <v>117</v>
       </c>
       <c r="Z41" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="AA41" t="s">
         <v>117</v>
@@ -15117,13 +15102,13 @@
         <v>117</v>
       </c>
       <c r="AJ41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AK41" t="s">
         <v>117</v>
       </c>
       <c r="AL41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM41" t="s">
         <v>117</v>
@@ -15195,7 +15180,7 @@
         <v>117</v>
       </c>
       <c r="BJ41" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BK41" t="s">
         <v>117</v>
@@ -15219,7 +15204,7 @@
         <v>117</v>
       </c>
       <c r="BR41" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="BS41" t="s">
         <v>117</v>
@@ -15354,13 +15339,13 @@
         <v>3.0</v>
       </c>
       <c r="DK41" t="s">
+        <v>255</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>267</v>
+      </c>
+      <c r="DM41" t="s">
         <v>270</v>
-      </c>
-      <c r="DL41" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="42">
@@ -15368,7 +15353,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
         <v>162</v>
@@ -15377,7 +15362,7 @@
         <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>117</v>
@@ -15386,7 +15371,7 @@
         <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I42" t="s">
         <v>117</v>
@@ -15434,7 +15419,7 @@
         <v>117</v>
       </c>
       <c r="X42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y42" t="s">
         <v>117</v>
@@ -15443,7 +15428,7 @@
         <v>117</v>
       </c>
       <c r="AA42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AB42" t="s">
         <v>117</v>
@@ -15539,13 +15524,13 @@
         <v>117</v>
       </c>
       <c r="BG42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BH42" t="s">
         <v>117</v>
       </c>
       <c r="BI42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BJ42" t="s">
         <v>117</v>
@@ -15707,13 +15692,13 @@
         <v>3.0</v>
       </c>
       <c r="DK42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL42" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM42" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
@@ -15721,7 +15706,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>168</v>
@@ -15880,7 +15865,7 @@
         <v>117</v>
       </c>
       <c r="BC43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BD43" t="s">
         <v>117</v>
@@ -16060,13 +16045,13 @@
         <v>3.0</v>
       </c>
       <c r="DK43" t="s">
+        <v>262</v>
+      </c>
+      <c r="DL43" t="s">
         <v>267</v>
       </c>
-      <c r="DL43" t="s">
-        <v>272</v>
-      </c>
       <c r="DM43" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
@@ -16074,7 +16059,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
         <v>117</v>
@@ -16191,7 +16176,7 @@
         <v>117</v>
       </c>
       <c r="AO44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AP44" t="s">
         <v>117</v>
@@ -16230,7 +16215,7 @@
         <v>117</v>
       </c>
       <c r="BB44" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="BC44" t="s">
         <v>117</v>
@@ -16242,13 +16227,13 @@
         <v>117</v>
       </c>
       <c r="BF44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BG44" t="s">
         <v>142</v>
       </c>
       <c r="BH44" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="BI44" t="s">
         <v>117</v>
@@ -16413,13 +16398,13 @@
         <v>3.0</v>
       </c>
       <c r="DK44" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL44" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM44" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
@@ -16448,7 +16433,7 @@
         <v>158</v>
       </c>
       <c r="I45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J45" t="s">
         <v>117</v>
@@ -16502,7 +16487,7 @@
         <v>117</v>
       </c>
       <c r="AA45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB45" t="s">
         <v>117</v>
@@ -16526,7 +16511,7 @@
         <v>117</v>
       </c>
       <c r="AI45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AJ45" t="s">
         <v>117</v>
@@ -16559,7 +16544,7 @@
         <v>117</v>
       </c>
       <c r="AT45" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AU45" t="s">
         <v>117</v>
@@ -16568,7 +16553,7 @@
         <v>159</v>
       </c>
       <c r="AW45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AX45" t="s">
         <v>117</v>
@@ -16631,7 +16616,7 @@
         <v>117</v>
       </c>
       <c r="BR45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BS45" t="s">
         <v>117</v>
@@ -16766,13 +16751,13 @@
         <v>4.0</v>
       </c>
       <c r="DK45" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="DL45" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM45" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
@@ -16795,7 +16780,7 @@
         <v>117</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
         <v>117</v>
@@ -16939,7 +16924,7 @@
         <v>117</v>
       </c>
       <c r="BC46" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="BD46" t="s">
         <v>117</v>
@@ -17119,13 +17104,13 @@
         <v>4.0</v>
       </c>
       <c r="DK46" t="s">
+        <v>262</v>
+      </c>
+      <c r="DL46" t="s">
         <v>267</v>
       </c>
-      <c r="DL46" t="s">
-        <v>272</v>
-      </c>
       <c r="DM46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47">
@@ -17142,16 +17127,16 @@
         <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I47" t="s">
         <v>117</v>
@@ -17250,7 +17235,7 @@
         <v>117</v>
       </c>
       <c r="AO47" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AP47" t="s">
         <v>117</v>
@@ -17259,7 +17244,7 @@
         <v>117</v>
       </c>
       <c r="AR47" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="AS47" t="s">
         <v>117</v>
@@ -17307,10 +17292,10 @@
         <v>117</v>
       </c>
       <c r="BH47" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="BI47" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="BJ47" t="s">
         <v>117</v>
@@ -17346,7 +17331,7 @@
         <v>117</v>
       </c>
       <c r="BU47" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="BV47" t="s">
         <v>117</v>
@@ -17472,13 +17457,13 @@
         <v>4.0</v>
       </c>
       <c r="DK47" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48">
@@ -17501,13 +17486,13 @@
         <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H48" t="s">
         <v>117</v>
       </c>
       <c r="I48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J48" t="s">
         <v>117</v>
@@ -17603,7 +17588,7 @@
         <v>117</v>
       </c>
       <c r="AO48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP48" t="s">
         <v>159</v>
@@ -17657,7 +17642,7 @@
         <v>117</v>
       </c>
       <c r="BG48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BH48" t="s">
         <v>170</v>
@@ -17666,7 +17651,7 @@
         <v>117</v>
       </c>
       <c r="BJ48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BK48" t="s">
         <v>117</v>
@@ -17786,7 +17771,7 @@
         <v>117</v>
       </c>
       <c r="CX48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="CY48" t="s">
         <v>117</v>
@@ -17825,13 +17810,13 @@
         <v>4.0</v>
       </c>
       <c r="DK48" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL48" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM48" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49">
@@ -17842,34 +17827,34 @@
         <v>117</v>
       </c>
       <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" t="s">
         <v>129</v>
       </c>
-      <c r="D49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" t="s">
-        <v>128</v>
-      </c>
       <c r="I49" t="s">
         <v>117</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
         <v>144</v>
       </c>
       <c r="L49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M49" t="s">
         <v>117</v>
@@ -17881,19 +17866,19 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="Q49" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="R49" t="s">
         <v>117</v>
       </c>
       <c r="S49" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="T49" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="U49" t="s">
         <v>117</v>
@@ -17947,7 +17932,7 @@
         <v>117</v>
       </c>
       <c r="AL49" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s">
         <v>117</v>
@@ -17959,19 +17944,19 @@
         <v>117</v>
       </c>
       <c r="AP49" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AQ49" t="s">
         <v>117</v>
       </c>
       <c r="AR49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS49" t="s">
         <v>117</v>
       </c>
       <c r="AT49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AU49" t="s">
         <v>166</v>
@@ -17983,7 +17968,7 @@
         <v>117</v>
       </c>
       <c r="AX49" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="AY49" t="s">
         <v>117</v>
@@ -18151,10 +18136,10 @@
         <v>117</v>
       </c>
       <c r="DB49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DC49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="DD49" t="s">
         <v>117</v>
@@ -18178,13 +18163,13 @@
         <v>4.0</v>
       </c>
       <c r="DK49" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="DL49" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM49" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
@@ -18207,13 +18192,13 @@
         <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J50" t="s">
         <v>117</v>
@@ -18240,11 +18225,11 @@
         <v>117</v>
       </c>
       <c r="R50" t="s">
+        <v>117</v>
+      </c>
+      <c r="S50" t="s">
         <v>152</v>
       </c>
-      <c r="S50" t="s">
-        <v>117</v>
-      </c>
       <c r="T50" t="s">
         <v>117</v>
       </c>
@@ -18267,7 +18252,7 @@
         <v>117</v>
       </c>
       <c r="AA50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB50" t="s">
         <v>117</v>
@@ -18339,7 +18324,7 @@
         <v>117</v>
       </c>
       <c r="AY50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AZ50" t="s">
         <v>117</v>
@@ -18402,7 +18387,7 @@
         <v>117</v>
       </c>
       <c r="BT50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BU50" t="s">
         <v>117</v>
@@ -18531,13 +18516,13 @@
         <v>4.0</v>
       </c>
       <c r="DK50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL50" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM50" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
@@ -18545,7 +18530,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
@@ -18761,13 +18746,13 @@
         <v>117</v>
       </c>
       <c r="BV51" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX51" t="s">
         <v>167</v>
-      </c>
-      <c r="BW51" t="s">
-        <v>117</v>
-      </c>
-      <c r="BX51" t="s">
-        <v>117</v>
       </c>
       <c r="BY51" t="s">
         <v>117</v>
@@ -18884,13 +18869,13 @@
         <v>4.0</v>
       </c>
       <c r="DK51" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="DL51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM51" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52">
@@ -18898,7 +18883,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
         <v>149</v>
@@ -18910,7 +18895,7 @@
         <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -18925,7 +18910,7 @@
         <v>117</v>
       </c>
       <c r="K52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s">
         <v>117</v>
@@ -18946,10 +18931,10 @@
         <v>117</v>
       </c>
       <c r="R52" t="s">
+        <v>117</v>
+      </c>
+      <c r="S52" t="s">
         <v>152</v>
-      </c>
-      <c r="S52" t="s">
-        <v>117</v>
       </c>
       <c r="T52" t="s">
         <v>117</v>
@@ -19237,13 +19222,13 @@
         <v>4.0</v>
       </c>
       <c r="DK52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DL52" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM52" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53">
@@ -19251,10 +19236,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
@@ -19269,7 +19254,7 @@
         <v>117</v>
       </c>
       <c r="H53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
         <v>117</v>
@@ -19521,7 +19506,7 @@
         <v>117</v>
       </c>
       <c r="CN53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CO53" t="s">
         <v>117</v>
@@ -19590,13 +19575,13 @@
         <v>4.0</v>
       </c>
       <c r="DK53" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL53" t="s">
         <v>268</v>
       </c>
-      <c r="DL53" t="s">
-        <v>273</v>
-      </c>
       <c r="DM53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
@@ -19718,7 +19703,7 @@
         <v>117</v>
       </c>
       <c r="AN54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AO54" t="s">
         <v>145</v>
@@ -19943,13 +19928,13 @@
         <v>4.0</v>
       </c>
       <c r="DK54" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="DL54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
@@ -19960,13 +19945,13 @@
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
         <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
         <v>117</v>
@@ -20074,7 +20059,7 @@
         <v>117</v>
       </c>
       <c r="AO55" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="AP55" t="s">
         <v>117</v>
@@ -20296,13 +20281,13 @@
         <v>4.0</v>
       </c>
       <c r="DK55" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM55" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
@@ -20325,13 +20310,13 @@
         <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J56" t="s">
         <v>117</v>
@@ -20343,7 +20328,7 @@
         <v>117</v>
       </c>
       <c r="M56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N56" t="s">
         <v>117</v>
@@ -20391,7 +20376,7 @@
         <v>117</v>
       </c>
       <c r="AC56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD56" t="s">
         <v>117</v>
@@ -20421,7 +20406,7 @@
         <v>117</v>
       </c>
       <c r="AM56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AN56" t="s">
         <v>117</v>
@@ -20433,7 +20418,7 @@
         <v>117</v>
       </c>
       <c r="AQ56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR56" t="s">
         <v>117</v>
@@ -20442,7 +20427,7 @@
         <v>117</v>
       </c>
       <c r="AT56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU56" t="s">
         <v>117</v>
@@ -20472,16 +20457,16 @@
         <v>117</v>
       </c>
       <c r="BD56" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BE56" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BF56" t="s">
         <v>117</v>
       </c>
       <c r="BG56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH56" t="s">
         <v>117</v>
@@ -20529,13 +20514,13 @@
         <v>117</v>
       </c>
       <c r="BW56" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX56" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY56" t="s">
         <v>158</v>
-      </c>
-      <c r="BX56" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY56" t="s">
-        <v>117</v>
       </c>
       <c r="BZ56" t="s">
         <v>117</v>
@@ -20649,13 +20634,13 @@
         <v>4.0</v>
       </c>
       <c r="DK56" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="DL56" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM56" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57">
@@ -20777,7 +20762,7 @@
         <v>117</v>
       </c>
       <c r="AN57" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AO57" t="s">
         <v>117</v>
@@ -20825,7 +20810,7 @@
         <v>117</v>
       </c>
       <c r="BD57" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="BE57" t="s">
         <v>117</v>
@@ -20861,7 +20846,7 @@
         <v>117</v>
       </c>
       <c r="BP57" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="BQ57" t="s">
         <v>117</v>
@@ -21002,13 +20987,13 @@
         <v>4.0</v>
       </c>
       <c r="DK57" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="DL57" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM57" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
@@ -21016,7 +21001,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
         <v>117</v>
@@ -21028,13 +21013,13 @@
         <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I58" t="s">
         <v>117</v>
@@ -21058,7 +21043,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="Q58" t="s">
         <v>117</v>
@@ -21124,7 +21109,7 @@
         <v>117</v>
       </c>
       <c r="AL58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM58" t="s">
         <v>117</v>
@@ -21148,7 +21133,7 @@
         <v>117</v>
       </c>
       <c r="AT58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU58" t="s">
         <v>117</v>
@@ -21157,7 +21142,7 @@
         <v>117</v>
       </c>
       <c r="AW58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AX58" t="s">
         <v>117</v>
@@ -21172,7 +21157,7 @@
         <v>117</v>
       </c>
       <c r="BB58" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="BC58" t="s">
         <v>117</v>
@@ -21247,13 +21232,13 @@
         <v>117</v>
       </c>
       <c r="CA58" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB58" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC58" t="s">
         <v>168</v>
-      </c>
-      <c r="CB58" t="s">
-        <v>117</v>
-      </c>
-      <c r="CC58" t="s">
-        <v>117</v>
       </c>
       <c r="CD58" t="s">
         <v>117</v>
@@ -21355,13 +21340,13 @@
         <v>4.0</v>
       </c>
       <c r="DK58" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="DL58" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM58" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59">
@@ -21381,13 +21366,13 @@
         <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
         <v>150</v>
       </c>
       <c r="H59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
         <v>166</v>
@@ -21396,7 +21381,7 @@
         <v>144</v>
       </c>
       <c r="K59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s">
         <v>117</v>
@@ -21435,7 +21420,7 @@
         <v>117</v>
       </c>
       <c r="X59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y59" t="s">
         <v>117</v>
@@ -21480,7 +21465,7 @@
         <v>170</v>
       </c>
       <c r="AM59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AN59" t="s">
         <v>148</v>
@@ -21528,13 +21513,13 @@
         <v>117</v>
       </c>
       <c r="BC59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BD59" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BE59" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="BF59" t="s">
         <v>117</v>
@@ -21708,13 +21693,13 @@
         <v>4.0</v>
       </c>
       <c r="DK59" t="s">
+        <v>265</v>
+      </c>
+      <c r="DL59" t="s">
+        <v>267</v>
+      </c>
+      <c r="DM59" t="s">
         <v>270</v>
-      </c>
-      <c r="DL59" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM59" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="60">
@@ -21920,7 +21905,7 @@
         <v>117</v>
       </c>
       <c r="BP60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="BQ60" t="s">
         <v>117</v>
@@ -22061,13 +22046,13 @@
         <v>5.0</v>
       </c>
       <c r="DK60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="DL60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM60" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61">
@@ -22084,7 +22069,7 @@
         <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
         <v>117</v>
@@ -22093,7 +22078,7 @@
         <v>117</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I61" t="s">
         <v>117</v>
@@ -22147,7 +22132,7 @@
         <v>117</v>
       </c>
       <c r="Z61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA61" t="s">
         <v>117</v>
@@ -22207,7 +22192,7 @@
         <v>117</v>
       </c>
       <c r="AT61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU61" t="s">
         <v>117</v>
@@ -22246,7 +22231,7 @@
         <v>117</v>
       </c>
       <c r="BG61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BH61" t="s">
         <v>117</v>
@@ -22414,13 +22399,13 @@
         <v>5.0</v>
       </c>
       <c r="DK61" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM61" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
@@ -22431,10 +22416,10 @@
         <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
         <v>117</v>
@@ -22446,13 +22431,13 @@
         <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I62" t="s">
         <v>117</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="K62" t="s">
         <v>117</v>
@@ -22536,7 +22521,7 @@
         <v>117</v>
       </c>
       <c r="AL62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AM62" t="s">
         <v>117</v>
@@ -22599,7 +22584,7 @@
         <v>117</v>
       </c>
       <c r="BG62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BH62" t="s">
         <v>117</v>
@@ -22629,13 +22614,13 @@
         <v>117</v>
       </c>
       <c r="BQ62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BR62" t="s">
         <v>117</v>
       </c>
       <c r="BS62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BT62" t="s">
         <v>117</v>
@@ -22668,7 +22653,7 @@
         <v>117</v>
       </c>
       <c r="CD62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CE62" t="s">
         <v>117</v>
@@ -22767,13 +22752,13 @@
         <v>5.0</v>
       </c>
       <c r="DK62" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL62" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="DM62" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63">
@@ -23120,13 +23105,13 @@
         <v>5.0</v>
       </c>
       <c r="DK63" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="DL63" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM63" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64">
@@ -23137,22 +23122,22 @@
         <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
         <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F64" t="s">
         <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I64" t="s">
         <v>143</v>
@@ -23164,7 +23149,7 @@
         <v>117</v>
       </c>
       <c r="L64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M64" t="s">
         <v>117</v>
@@ -23188,13 +23173,13 @@
         <v>117</v>
       </c>
       <c r="T64" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="U64" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="V64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W64" t="s">
         <v>117</v>
@@ -23239,10 +23224,10 @@
         <v>117</v>
       </c>
       <c r="AK64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM64" t="s">
         <v>117</v>
@@ -23254,22 +23239,22 @@
         <v>117</v>
       </c>
       <c r="AP64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR64" t="s">
         <v>117</v>
       </c>
       <c r="AS64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AT64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AU64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV64" t="s">
         <v>117</v>
@@ -23281,7 +23266,7 @@
         <v>117</v>
       </c>
       <c r="AY64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AZ64" t="s">
         <v>117</v>
@@ -23455,10 +23440,10 @@
         <v>117</v>
       </c>
       <c r="DE64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DF64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DG64" t="s">
         <v>117</v>
@@ -23473,13 +23458,13 @@
         <v>5.0</v>
       </c>
       <c r="DK64" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="DL64" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM64" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65">
@@ -23499,10 +23484,10 @@
         <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
         <v>117</v>
@@ -23511,40 +23496,40 @@
         <v>117</v>
       </c>
       <c r="J65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K65" t="s">
+        <v>128</v>
+      </c>
+      <c r="L65" t="s">
+        <v>117</v>
+      </c>
+      <c r="M65" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" t="s">
+        <v>117</v>
+      </c>
+      <c r="O65" t="s">
         <v>127</v>
       </c>
-      <c r="L65" t="s">
-        <v>117</v>
-      </c>
-      <c r="M65" t="s">
-        <v>117</v>
-      </c>
-      <c r="N65" t="s">
-        <v>117</v>
-      </c>
-      <c r="O65" t="s">
-        <v>126</v>
-      </c>
       <c r="P65" t="s">
         <v>117</v>
       </c>
       <c r="Q65" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="R65" t="s">
         <v>166</v>
       </c>
       <c r="S65" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="T65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U65" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="V65" t="s">
         <v>161</v>
@@ -23556,10 +23541,10 @@
         <v>161</v>
       </c>
       <c r="Y65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Z65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA65" t="s">
         <v>117</v>
@@ -23568,7 +23553,7 @@
         <v>117</v>
       </c>
       <c r="AC65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD65" t="s">
         <v>117</v>
@@ -23826,13 +23811,13 @@
         <v>5.0</v>
       </c>
       <c r="DK65" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DL65" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM65" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66">
@@ -23861,7 +23846,7 @@
         <v>117</v>
       </c>
       <c r="I66" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
         <v>117</v>
@@ -23999,7 +23984,7 @@
         <v>117</v>
       </c>
       <c r="BC66" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="BD66" t="s">
         <v>117</v>
@@ -24008,7 +23993,7 @@
         <v>117</v>
       </c>
       <c r="BF66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BG66" t="s">
         <v>117</v>
@@ -24149,7 +24134,7 @@
         <v>117</v>
       </c>
       <c r="DA66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="DB66" t="s">
         <v>117</v>
@@ -24179,13 +24164,13 @@
         <v>5.0</v>
       </c>
       <c r="DK66" t="s">
+        <v>265</v>
+      </c>
+      <c r="DL66" t="s">
+        <v>267</v>
+      </c>
+      <c r="DM66" t="s">
         <v>270</v>
-      </c>
-      <c r="DL66" t="s">
-        <v>272</v>
-      </c>
-      <c r="DM66" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="67">
@@ -24193,10 +24178,10 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
         <v>161</v>
@@ -24244,10 +24229,10 @@
         <v>117</v>
       </c>
       <c r="S67" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="T67" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="U67" t="s">
         <v>117</v>
@@ -24259,7 +24244,7 @@
         <v>117</v>
       </c>
       <c r="X67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y67" t="s">
         <v>117</v>
@@ -24532,13 +24517,13 @@
         <v>5.0</v>
       </c>
       <c r="DK67" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="DL67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM67" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68">
@@ -24561,22 +24546,22 @@
         <v>117</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="I68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J68" t="s">
         <v>158</v>
       </c>
       <c r="K68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M68" t="s">
         <v>161</v>
@@ -24585,7 +24570,7 @@
         <v>117</v>
       </c>
       <c r="O68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P68" t="s">
         <v>117</v>
@@ -24654,10 +24639,10 @@
         <v>117</v>
       </c>
       <c r="AL68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AN68" t="s">
         <v>117</v>
@@ -24705,14 +24690,14 @@
         <v>117</v>
       </c>
       <c r="BC68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD68" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE68" t="s">
         <v>145</v>
       </c>
-      <c r="BE68" t="s">
-        <v>117</v>
-      </c>
       <c r="BF68" t="s">
         <v>117</v>
       </c>
@@ -24765,13 +24750,13 @@
         <v>117</v>
       </c>
       <c r="BW68" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="BX68" t="s">
         <v>117</v>
       </c>
       <c r="BY68" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="BZ68" t="s">
         <v>117</v>
@@ -24885,13 +24870,13 @@
         <v>5.0</v>
       </c>
       <c r="DK68" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="DL68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DM68" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69">
@@ -24920,7 +24905,7 @@
         <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J69" t="s">
         <v>142</v>
@@ -24947,11 +24932,11 @@
         <v>117</v>
       </c>
       <c r="R69" t="s">
+        <v>117</v>
+      </c>
+      <c r="S69" t="s">
         <v>148</v>
       </c>
-      <c r="S69" t="s">
-        <v>117</v>
-      </c>
       <c r="T69" t="s">
         <v>117</v>
       </c>
@@ -24974,7 +24959,7 @@
         <v>117</v>
       </c>
       <c r="AA69" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB69" t="s">
         <v>117</v>
@@ -25007,7 +24992,7 @@
         <v>117</v>
       </c>
       <c r="AL69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AM69" t="s">
         <v>117</v>
@@ -25238,13 +25223,13 @@
         <v>5.0</v>
       </c>
       <c r="DK69" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL69" t="s">
         <v>268</v>
       </c>
-      <c r="DL69" t="s">
-        <v>273</v>
-      </c>
       <c r="DM69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70">
@@ -25267,19 +25252,19 @@
         <v>117</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H70" t="s">
         <v>117</v>
       </c>
       <c r="I70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L70" t="s">
         <v>117</v>
@@ -25327,7 +25312,7 @@
         <v>117</v>
       </c>
       <c r="AA70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB70" t="s">
         <v>117</v>
@@ -25339,7 +25324,7 @@
         <v>117</v>
       </c>
       <c r="AE70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF70" t="s">
         <v>117</v>
@@ -25375,7 +25360,7 @@
         <v>117</v>
       </c>
       <c r="AQ70" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AR70" t="s">
         <v>117</v>
@@ -25393,7 +25378,7 @@
         <v>117</v>
       </c>
       <c r="AW70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AX70" t="s">
         <v>117</v>
@@ -25408,7 +25393,7 @@
         <v>117</v>
       </c>
       <c r="BB70" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="BC70" t="s">
         <v>117</v>
@@ -25591,13 +25576,13 @@
         <v>5.0</v>
       </c>
       <c r="DK70" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="DL70" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM70" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
@@ -25620,7 +25605,7 @@
         <v>149</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H71" t="s">
         <v>117</v>
@@ -25767,10 +25752,10 @@
         <v>117</v>
       </c>
       <c r="BD71" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="BE71" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="BF71" t="s">
         <v>117</v>
@@ -25818,13 +25803,13 @@
         <v>117</v>
       </c>
       <c r="BU71" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="BV71" t="s">
         <v>117</v>
       </c>
       <c r="BW71" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="BX71" t="s">
         <v>117</v>
@@ -25944,13 +25929,13 @@
         <v>5.0</v>
       </c>
       <c r="DK71" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="DL71" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM71" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72">
@@ -25976,10 +25961,10 @@
         <v>117</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J72" t="s">
         <v>117</v>
@@ -25991,7 +25976,7 @@
         <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N72" t="s">
         <v>117</v>
@@ -26069,7 +26054,7 @@
         <v>117</v>
       </c>
       <c r="AM72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN72" t="s">
         <v>117</v>
@@ -26111,7 +26096,7 @@
         <v>117</v>
       </c>
       <c r="BA72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BB72" t="s">
         <v>159</v>
@@ -26159,7 +26144,7 @@
         <v>117</v>
       </c>
       <c r="BQ72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BR72" t="s">
         <v>117</v>
@@ -26297,13 +26282,13 @@
         <v>5.0</v>
       </c>
       <c r="DK72" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="DL72" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM72" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -26311,7 +26296,7 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
@@ -26320,14 +26305,14 @@
         <v>117</v>
       </c>
       <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" t="s">
         <v>129</v>
       </c>
-      <c r="F73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" t="s">
-        <v>128</v>
-      </c>
       <c r="H73" t="s">
         <v>117</v>
       </c>
@@ -26377,7 +26362,7 @@
         <v>117</v>
       </c>
       <c r="X73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y73" t="s">
         <v>117</v>
@@ -26650,13 +26635,13 @@
         <v>5.0</v>
       </c>
       <c r="DK73" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DL73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="DM73" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/primerdata_allspecies.xlsx
+++ b/primerdata_allspecies.xlsx
@@ -11330,7 +11330,7 @@
         <v>117</v>
       </c>
       <c r="BU30" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BV30" t="s">
         <v>117</v>

--- a/primerdata_allspecies.xlsx
+++ b/primerdata_allspecies.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10645" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10650" uniqueCount="286">
   <si>
     <t>No.</t>
   </si>
@@ -6481,8 +6481,8 @@
       <c r="DR15" t="s">
         <v>281</v>
       </c>
-      <c r="DS15" t="e">
-        <v>#N/A</v>
+      <c r="DS15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="16">
@@ -13159,8 +13159,8 @@
       <c r="DR33" t="s">
         <v>281</v>
       </c>
-      <c r="DS33" t="e">
-        <v>#N/A</v>
+      <c r="DS33" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="34">
@@ -19466,8 +19466,8 @@
       <c r="DR50" t="s">
         <v>281</v>
       </c>
-      <c r="DS50" t="e">
-        <v>#N/A</v>
+      <c r="DS50" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="51">
@@ -26144,8 +26144,8 @@
       <c r="DR68" t="s">
         <v>281</v>
       </c>
-      <c r="DS68" t="e">
-        <v>#N/A</v>
+      <c r="DS68" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="69">
@@ -32451,8 +32451,8 @@
       <c r="DR85" t="s">
         <v>281</v>
       </c>
-      <c r="DS85" t="e">
-        <v>#N/A</v>
+      <c r="DS85" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="86">
